--- a/Team-Data/2020-21/1-16-2020-21.xlsx
+++ b/Team-Data/2020-21/1-16-2020-21.xlsx
@@ -2130,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>28</v>
@@ -2234,16 +2234,16 @@
         <v>11.2</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
         <v>24.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -2321,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>10</v>
@@ -3299,10 +3299,10 @@
         <v>41.7</v>
       </c>
       <c r="J16" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L16" t="n">
         <v>10</v>
@@ -3323,7 +3323,7 @@
         <v>0.767</v>
       </c>
       <c r="R16" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S16" t="n">
         <v>35.1</v>
